--- a/الحملة.xlsx
+++ b/الحملة.xlsx
@@ -810,6 +810,470 @@
     </font>
     <font>
       <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
       <b/>
     </font>
     <font>
@@ -3765,6 +4229,122 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="D9D9D9"/>
@@ -7929,6 +8509,818 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7950,7 +9342,7 @@
     <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7968,7 +9360,7 @@
     <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -7986,7 +9378,7 @@
     <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8004,7 +9396,7 @@
     <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8022,7 +9414,7 @@
     <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8040,7 +9432,7 @@
     <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8058,7 +9450,7 @@
     <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8076,7 +9468,7 @@
     <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8094,7 +9486,7 @@
     <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8112,7 +9504,7 @@
     <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8130,7 +9522,7 @@
     <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8148,7 +9540,7 @@
     <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8166,7 +9558,7 @@
     <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8184,7 +9576,7 @@
     <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8202,7 +9594,7 @@
     <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8220,7 +9612,7 @@
     <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8238,7 +9630,7 @@
     <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8256,7 +9648,7 @@
     <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8274,7 +9666,7 @@
     <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8292,7 +9684,7 @@
     <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8310,7 +9702,7 @@
     <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8328,7 +9720,7 @@
     <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8346,7 +9738,7 @@
     <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8364,7 +9756,7 @@
     <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8382,7 +9774,7 @@
     <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8400,7 +9792,7 @@
     <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8418,7 +9810,7 @@
     <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8436,7 +9828,7 @@
     <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8454,7 +9846,7 @@
     <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8472,7 +9864,7 @@
     <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8490,7 +9882,7 @@
     <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8508,7 +9900,7 @@
     <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8526,7 +9918,7 @@
     <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8544,7 +9936,7 @@
     <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8562,7 +9954,7 @@
     <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8580,7 +9972,7 @@
     <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8598,7 +9990,7 @@
     <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8616,7 +10008,7 @@
     <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8634,7 +10026,7 @@
     <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8652,7 +10044,7 @@
     <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8670,7 +10062,7 @@
     <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8688,7 +10080,7 @@
     <xf fontId="251" fillId="252" borderId="251" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="253" fillId="254" borderId="253" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8706,7 +10098,7 @@
     <xf fontId="257" fillId="258" borderId="257" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="259" fillId="260" borderId="259" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8724,7 +10116,7 @@
     <xf fontId="263" fillId="264" borderId="263" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="265" fillId="266" borderId="265" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8742,7 +10134,7 @@
     <xf fontId="269" fillId="270" borderId="269" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="271" fillId="272" borderId="271" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8760,7 +10152,7 @@
     <xf fontId="275" fillId="276" borderId="275" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="277" fillId="278" borderId="277" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8778,7 +10170,7 @@
     <xf fontId="281" fillId="282" borderId="281" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="283" fillId="284" borderId="283" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8796,7 +10188,7 @@
     <xf fontId="287" fillId="288" borderId="287" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="289" fillId="290" borderId="289" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8814,7 +10206,7 @@
     <xf fontId="293" fillId="294" borderId="293" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="295" fillId="296" borderId="295" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8832,7 +10224,7 @@
     <xf fontId="299" fillId="300" borderId="299" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="301" fillId="302" borderId="301" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8850,7 +10242,7 @@
     <xf fontId="305" fillId="306" borderId="305" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="307" fillId="308" borderId="307" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8868,7 +10260,7 @@
     <xf fontId="311" fillId="312" borderId="311" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="313" fillId="314" borderId="313" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8886,7 +10278,7 @@
     <xf fontId="317" fillId="318" borderId="317" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="319" fillId="320" borderId="319" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8904,7 +10296,7 @@
     <xf fontId="323" fillId="324" borderId="323" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="325" fillId="326" borderId="325" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8922,7 +10314,7 @@
     <xf fontId="329" fillId="330" borderId="329" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="331" fillId="332" borderId="331" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8940,7 +10332,7 @@
     <xf fontId="335" fillId="336" borderId="335" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="337" fillId="338" borderId="337" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8958,7 +10350,7 @@
     <xf fontId="341" fillId="342" borderId="341" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="343" fillId="344" borderId="343" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8976,7 +10368,7 @@
     <xf fontId="347" fillId="348" borderId="347" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="349" fillId="350" borderId="349" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -8994,7 +10386,7 @@
     <xf fontId="353" fillId="354" borderId="353" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="355" fillId="356" borderId="355" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9012,7 +10404,7 @@
     <xf fontId="359" fillId="360" borderId="359" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="361" fillId="362" borderId="361" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9030,7 +10422,7 @@
     <xf fontId="365" fillId="366" borderId="365" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="367" fillId="368" borderId="367" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9048,7 +10440,7 @@
     <xf fontId="371" fillId="372" borderId="371" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="373" fillId="374" borderId="373" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9066,7 +10458,7 @@
     <xf fontId="377" fillId="378" borderId="377" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="379" fillId="380" borderId="379" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9084,7 +10476,7 @@
     <xf fontId="383" fillId="384" borderId="383" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="385" fillId="386" borderId="385" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9102,7 +10494,7 @@
     <xf fontId="389" fillId="390" borderId="389" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="391" fillId="392" borderId="391" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9120,7 +10512,7 @@
     <xf fontId="395" fillId="396" borderId="395" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="397" fillId="398" borderId="397" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9138,7 +10530,7 @@
     <xf fontId="401" fillId="402" borderId="401" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="403" fillId="404" borderId="403" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9156,7 +10548,7 @@
     <xf fontId="407" fillId="408" borderId="407" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="409" fillId="410" borderId="409" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9174,7 +10566,7 @@
     <xf fontId="413" fillId="414" borderId="413" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="415" fillId="416" borderId="415" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9192,7 +10584,7 @@
     <xf fontId="419" fillId="420" borderId="419" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="421" fillId="422" borderId="421" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9210,7 +10602,7 @@
     <xf fontId="425" fillId="426" borderId="425" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="427" fillId="428" borderId="427" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9228,7 +10620,7 @@
     <xf fontId="431" fillId="432" borderId="431" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="433" fillId="434" borderId="433" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9246,7 +10638,7 @@
     <xf fontId="437" fillId="438" borderId="437" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="439" fillId="440" borderId="439" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9264,7 +10656,7 @@
     <xf fontId="443" fillId="444" borderId="443" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="445" fillId="446" borderId="445" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9282,7 +10674,7 @@
     <xf fontId="449" fillId="450" borderId="449" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="451" fillId="452" borderId="451" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9300,7 +10692,7 @@
     <xf fontId="455" fillId="456" borderId="455" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="457" fillId="458" borderId="457" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9318,7 +10710,7 @@
     <xf fontId="461" fillId="462" borderId="461" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="463" fillId="464" borderId="463" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9336,7 +10728,7 @@
     <xf fontId="467" fillId="468" borderId="467" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="469" fillId="470" borderId="469" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9354,7 +10746,7 @@
     <xf fontId="473" fillId="474" borderId="473" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="474" fillId="475" borderId="474" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="474" fillId="475" borderId="474" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="475" fillId="476" borderId="475" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9372,7 +10764,7 @@
     <xf fontId="479" fillId="480" borderId="479" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="480" fillId="481" borderId="480" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="480" fillId="481" borderId="480" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="481" fillId="482" borderId="481" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9390,7 +10782,7 @@
     <xf fontId="485" fillId="486" borderId="485" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="486" fillId="487" borderId="486" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="486" fillId="487" borderId="486" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="487" fillId="488" borderId="487" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9408,7 +10800,7 @@
     <xf fontId="491" fillId="492" borderId="491" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="492" fillId="493" borderId="492" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="492" fillId="493" borderId="492" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="493" fillId="494" borderId="493" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9426,7 +10818,7 @@
     <xf fontId="497" fillId="498" borderId="497" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="498" fillId="499" borderId="498" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="498" fillId="499" borderId="498" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="499" fillId="500" borderId="499" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9444,7 +10836,7 @@
     <xf fontId="503" fillId="504" borderId="503" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="504" fillId="505" borderId="504" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="504" fillId="505" borderId="504" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="505" fillId="506" borderId="505" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9462,7 +10854,7 @@
     <xf fontId="509" fillId="510" borderId="509" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="510" fillId="511" borderId="510" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="510" fillId="511" borderId="510" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="511" fillId="512" borderId="511" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9480,7 +10872,7 @@
     <xf fontId="515" fillId="516" borderId="515" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="516" fillId="517" borderId="516" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="516" fillId="517" borderId="516" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="517" fillId="518" borderId="517" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9498,7 +10890,7 @@
     <xf fontId="521" fillId="522" borderId="521" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="522" fillId="523" borderId="522" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="522" fillId="523" borderId="522" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="523" fillId="524" borderId="523" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9516,7 +10908,7 @@
     <xf fontId="527" fillId="528" borderId="527" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="528" fillId="529" borderId="528" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="528" fillId="529" borderId="528" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="529" fillId="530" borderId="529" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9534,7 +10926,7 @@
     <xf fontId="533" fillId="534" borderId="533" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="534" fillId="535" borderId="534" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="534" fillId="535" borderId="534" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="535" fillId="536" borderId="535" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9552,7 +10944,7 @@
     <xf fontId="539" fillId="540" borderId="539" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="540" fillId="541" borderId="540" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="540" fillId="541" borderId="540" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="541" fillId="542" borderId="541" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9570,7 +10962,7 @@
     <xf fontId="545" fillId="546" borderId="545" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="546" fillId="547" borderId="546" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="546" fillId="547" borderId="546" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="547" fillId="548" borderId="547" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9588,7 +10980,7 @@
     <xf fontId="551" fillId="552" borderId="551" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="552" fillId="553" borderId="552" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="552" fillId="553" borderId="552" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="553" fillId="554" borderId="553" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9606,7 +10998,7 @@
     <xf fontId="557" fillId="558" borderId="557" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="558" fillId="559" borderId="558" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="558" fillId="559" borderId="558" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="559" fillId="560" borderId="559" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9624,7 +11016,7 @@
     <xf fontId="563" fillId="564" borderId="563" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="564" fillId="565" borderId="564" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="564" fillId="565" borderId="564" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="565" fillId="566" borderId="565" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9642,7 +11034,7 @@
     <xf fontId="569" fillId="570" borderId="569" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="570" fillId="571" borderId="570" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="570" fillId="571" borderId="570" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="571" fillId="572" borderId="571" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9660,7 +11052,7 @@
     <xf fontId="575" fillId="576" borderId="575" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="576" fillId="577" borderId="576" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="576" fillId="577" borderId="576" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="577" fillId="578" borderId="577" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9678,7 +11070,7 @@
     <xf fontId="581" fillId="582" borderId="581" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="582" fillId="583" borderId="582" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="582" fillId="583" borderId="582" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="583" fillId="584" borderId="583" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -9690,19 +11082,367 @@
     <xf fontId="585" fillId="586" borderId="585" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="586" fillId="587" borderId="586" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="587" fillId="588" borderId="587" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="586" fillId="587" borderId="586" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="587" fillId="588" borderId="587" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="588" fillId="589" borderId="588" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="589" fillId="590" borderId="589" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="590" fillId="591" borderId="590" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="589" fillId="590" borderId="589" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="590" fillId="591" borderId="590" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="591" fillId="592" borderId="591" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="592" fillId="593" borderId="592" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="593" fillId="594" borderId="593" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="594" fillId="595" borderId="594" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="595" fillId="596" borderId="595" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="596" fillId="597" borderId="596" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="597" fillId="598" borderId="597" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="598" fillId="599" borderId="598" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="599" fillId="600" borderId="599" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="600" fillId="601" borderId="600" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="601" fillId="602" borderId="601" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="602" fillId="603" borderId="602" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="603" fillId="604" borderId="603" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="604" fillId="605" borderId="604" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="605" fillId="606" borderId="605" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="606" fillId="607" borderId="606" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="607" fillId="608" borderId="607" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="608" fillId="609" borderId="608" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="609" fillId="610" borderId="609" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="610" fillId="611" borderId="610" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="611" fillId="612" borderId="611" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="612" fillId="613" borderId="612" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="613" fillId="614" borderId="613" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="614" fillId="615" borderId="614" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="615" fillId="616" borderId="615" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="616" fillId="617" borderId="616" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="617" fillId="618" borderId="617" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="618" fillId="619" borderId="618" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="619" fillId="620" borderId="619" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="620" fillId="621" borderId="620" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="621" fillId="622" borderId="621" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="622" fillId="623" borderId="622" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="623" fillId="624" borderId="623" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="624" fillId="625" borderId="624" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="625" fillId="626" borderId="625" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="626" fillId="627" borderId="626" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="627" fillId="628" borderId="627" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="628" fillId="629" borderId="628" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="629" fillId="630" borderId="629" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="630" fillId="631" borderId="630" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="631" fillId="632" borderId="631" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="632" fillId="633" borderId="632" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="633" fillId="634" borderId="633" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="634" fillId="635" borderId="634" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="635" fillId="636" borderId="635" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="636" fillId="637" borderId="636" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="637" fillId="638" borderId="637" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="638" fillId="639" borderId="638" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="639" fillId="640" borderId="639" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="640" fillId="641" borderId="640" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="641" fillId="642" borderId="641" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="642" fillId="643" borderId="642" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="643" fillId="644" borderId="643" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="644" fillId="645" borderId="644" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="645" fillId="646" borderId="645" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="646" fillId="647" borderId="646" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="647" fillId="648" borderId="647" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="648" fillId="649" borderId="648" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="649" fillId="650" borderId="649" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="650" fillId="651" borderId="650" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="651" fillId="652" borderId="651" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="652" fillId="653" borderId="652" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="653" fillId="654" borderId="653" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="654" fillId="655" borderId="654" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="655" fillId="656" borderId="655" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="656" fillId="657" borderId="656" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="657" fillId="658" borderId="657" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="658" fillId="659" borderId="658" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="659" fillId="660" borderId="659" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="660" fillId="661" borderId="660" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="661" fillId="662" borderId="661" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="662" fillId="663" borderId="662" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="663" fillId="664" borderId="663" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="664" fillId="665" borderId="664" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="665" fillId="666" borderId="665" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="666" fillId="667" borderId="666" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="667" fillId="668" borderId="667" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="668" fillId="669" borderId="668" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="669" fillId="670" borderId="669" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="670" fillId="671" borderId="670" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="671" fillId="672" borderId="671" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="672" fillId="673" borderId="672" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="673" fillId="674" borderId="673" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="674" fillId="675" borderId="674" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="675" fillId="676" borderId="675" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="676" fillId="677" borderId="676" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="677" fillId="678" borderId="677" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="678" fillId="679" borderId="678" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="679" fillId="680" borderId="679" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="680" fillId="681" borderId="680" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="681" fillId="682" borderId="681" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="682" fillId="683" borderId="682" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="683" fillId="684" borderId="683" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="684" fillId="685" borderId="684" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="685" fillId="686" borderId="685" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="686" fillId="687" borderId="686" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="687" fillId="688" borderId="687" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="688" fillId="689" borderId="688" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="689" fillId="690" borderId="689" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="690" fillId="691" borderId="690" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="691" fillId="692" borderId="691" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="692" fillId="693" borderId="692" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="693" fillId="694" borderId="693" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="694" fillId="695" borderId="694" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="695" fillId="696" borderId="695" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="696" fillId="697" borderId="696" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="697" fillId="698" borderId="697" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="698" fillId="699" borderId="698" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="699" fillId="700" borderId="699" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="700" fillId="701" borderId="700" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="701" fillId="702" borderId="701" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="702" fillId="703" borderId="702" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="703" fillId="704" borderId="703" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="704" fillId="705" borderId="704" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="705" fillId="706" borderId="705" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="706" fillId="707" borderId="706" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -9991,2017 +11731,2365 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="E1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="F1" t="s" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="6">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="C2" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="D2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="E2" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="F2" t="s" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="11">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="C3" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="D3" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="E3" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="F3" t="s" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="16">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="17">
+      <c r="C4" t="s" s="20">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="18">
+      <c r="D4" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="E4" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="F4" t="s" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="21">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="25">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="22">
+      <c r="C5" t="s" s="26">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="D5" t="s" s="27">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="24">
+      <c r="E5" t="s" s="28">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="25">
+      <c r="F5" t="s" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="26">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="31">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="27">
+      <c r="C6" t="s" s="32">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="D6" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="29">
+      <c r="E6" t="s" s="34">
         <v>8</v>
       </c>
-      <c r="E6" t="s" s="30">
+      <c r="F6" t="s" s="35">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="31">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="37">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="32">
+      <c r="C7" t="s" s="38">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="33">
+      <c r="D7" t="s" s="39">
         <v>7</v>
       </c>
-      <c r="D7" t="s" s="34">
+      <c r="E7" t="s" s="40">
         <v>8</v>
       </c>
-      <c r="E7" t="s" s="35">
+      <c r="F7" t="s" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="36">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="37">
+      <c r="C8" t="s" s="44">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="38">
+      <c r="D8" t="s" s="45">
         <v>7</v>
       </c>
-      <c r="D8" t="s" s="39">
+      <c r="E8" t="s" s="46">
         <v>8</v>
       </c>
-      <c r="E8" t="s" s="40">
+      <c r="F8" t="s" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="41">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="49">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="42">
+      <c r="C9" t="s" s="50">
         <v>25</v>
       </c>
-      <c r="C9" t="s" s="43">
+      <c r="D9" t="s" s="51">
         <v>7</v>
       </c>
-      <c r="D9" t="s" s="44">
+      <c r="E9" t="s" s="52">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="45">
+      <c r="F9" t="s" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="46">
+      <c r="A10" s="54">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="55">
         <v>26</v>
       </c>
-      <c r="B10" t="s" s="47">
+      <c r="C10" t="s" s="56">
         <v>27</v>
       </c>
-      <c r="C10" t="s" s="48">
+      <c r="D10" t="s" s="57">
         <v>7</v>
       </c>
-      <c r="D10" t="s" s="49">
+      <c r="E10" t="s" s="58">
         <v>8</v>
       </c>
-      <c r="E10" t="s" s="50">
+      <c r="F10" t="s" s="59">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="51">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="61">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="52">
+      <c r="C11" t="s" s="62">
         <v>29</v>
       </c>
-      <c r="C11" t="s" s="53">
+      <c r="D11" t="s" s="63">
         <v>7</v>
       </c>
-      <c r="D11" t="s" s="54">
+      <c r="E11" t="s" s="64">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="55">
+      <c r="F11" t="s" s="65">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="56">
+      <c r="A12" s="66">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="67">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="57">
+      <c r="C12" t="s" s="68">
         <v>31</v>
       </c>
-      <c r="C12" t="s" s="58">
+      <c r="D12" t="s" s="69">
         <v>7</v>
       </c>
-      <c r="D12" t="s" s="59">
+      <c r="E12" t="s" s="70">
         <v>8</v>
       </c>
-      <c r="E12" t="s" s="60">
+      <c r="F12" t="s" s="71">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="61">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="73">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="62">
+      <c r="C13" t="s" s="74">
         <v>33</v>
       </c>
-      <c r="C13" t="s" s="63">
+      <c r="D13" t="s" s="75">
         <v>7</v>
       </c>
-      <c r="D13" t="s" s="64">
+      <c r="E13" t="s" s="76">
         <v>8</v>
       </c>
-      <c r="E13" t="s" s="65">
+      <c r="F13" t="s" s="77">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="66">
+      <c r="A14" s="78">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="79">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="67">
+      <c r="C14" t="s" s="80">
         <v>35</v>
       </c>
-      <c r="C14" t="s" s="68">
+      <c r="D14" t="s" s="81">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="69">
+      <c r="E14" t="s" s="82">
         <v>15</v>
       </c>
-      <c r="E14" t="s" s="70">
+      <c r="F14" t="s" s="83">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="71">
+      <c r="A15" s="84">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="85">
         <v>36</v>
       </c>
-      <c r="B15" t="s" s="72">
+      <c r="C15" t="s" s="86">
         <v>37</v>
       </c>
-      <c r="C15" t="s" s="73">
+      <c r="D15" t="s" s="87">
         <v>7</v>
       </c>
-      <c r="D15" t="s" s="74">
+      <c r="E15" t="s" s="88">
         <v>8</v>
       </c>
-      <c r="E15" t="s" s="75">
+      <c r="F15" t="s" s="89">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="76">
+      <c r="A16" s="90">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="91">
         <v>38</v>
       </c>
-      <c r="B16" t="s" s="77">
+      <c r="C16" t="s" s="92">
         <v>39</v>
       </c>
-      <c r="C16" t="s" s="78">
+      <c r="D16" t="s" s="93">
         <v>7</v>
       </c>
-      <c r="D16" t="s" s="79">
+      <c r="E16" t="s" s="94">
         <v>8</v>
       </c>
-      <c r="E16" t="s" s="80">
+      <c r="F16" t="s" s="95">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="81">
+      <c r="A17" s="96">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="97">
         <v>40</v>
       </c>
-      <c r="B17" t="s" s="82">
+      <c r="C17" t="s" s="98">
         <v>41</v>
       </c>
-      <c r="C17" t="s" s="83">
+      <c r="D17" t="s" s="99">
         <v>7</v>
       </c>
-      <c r="D17" t="s" s="84">
+      <c r="E17" t="s" s="100">
         <v>8</v>
       </c>
-      <c r="E17" t="s" s="85">
+      <c r="F17" t="s" s="101">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="86">
+      <c r="A18" s="102">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="103">
         <v>42</v>
       </c>
-      <c r="B18" t="s" s="87">
+      <c r="C18" t="s" s="104">
         <v>43</v>
       </c>
-      <c r="C18" t="s" s="88">
+      <c r="D18" t="s" s="105">
         <v>7</v>
       </c>
-      <c r="D18" t="s" s="89">
+      <c r="E18" t="s" s="106">
         <v>8</v>
       </c>
-      <c r="E18" t="s" s="90">
+      <c r="F18" t="s" s="107">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="91">
+      <c r="A19" s="108">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="109">
         <v>44</v>
       </c>
-      <c r="B19" t="s" s="92">
+      <c r="C19" t="s" s="110">
         <v>45</v>
       </c>
-      <c r="C19" t="s" s="93">
+      <c r="D19" t="s" s="111">
         <v>7</v>
       </c>
-      <c r="D19" t="s" s="94">
+      <c r="E19" t="s" s="112">
         <v>8</v>
       </c>
-      <c r="E19" t="s" s="95">
+      <c r="F19" t="s" s="113">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="96">
+      <c r="A20" s="114">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="115">
         <v>46</v>
       </c>
-      <c r="B20" t="s" s="97">
+      <c r="C20" t="s" s="116">
         <v>47</v>
       </c>
-      <c r="C20" t="s" s="98">
+      <c r="D20" t="s" s="117">
         <v>7</v>
       </c>
-      <c r="D20" t="s" s="99">
+      <c r="E20" t="s" s="118">
         <v>8</v>
       </c>
-      <c r="E20" t="s" s="100">
+      <c r="F20" t="s" s="119">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="101">
+      <c r="A21" s="120">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="121">
         <v>48</v>
       </c>
-      <c r="B21" t="s" s="102">
+      <c r="C21" t="s" s="122">
         <v>49</v>
       </c>
-      <c r="C21" t="s" s="103">
+      <c r="D21" t="s" s="123">
         <v>7</v>
       </c>
-      <c r="D21" t="s" s="104">
+      <c r="E21" t="s" s="124">
         <v>8</v>
       </c>
-      <c r="E21" t="s" s="105">
+      <c r="F21" t="s" s="125">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="106">
+      <c r="A22" s="126">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="127">
         <v>50</v>
       </c>
-      <c r="B22" t="s" s="107">
+      <c r="C22" t="s" s="128">
         <v>51</v>
       </c>
-      <c r="C22" t="s" s="108">
+      <c r="D22" t="s" s="129">
         <v>7</v>
       </c>
-      <c r="D22" t="s" s="109">
+      <c r="E22" t="s" s="130">
         <v>8</v>
       </c>
-      <c r="E22" t="s" s="110">
+      <c r="F22" t="s" s="131">
         <v>9</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="111">
+      <c r="A23" s="132">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="133">
         <v>52</v>
       </c>
-      <c r="B23" t="s" s="112">
+      <c r="C23" t="s" s="134">
         <v>53</v>
       </c>
-      <c r="C23" t="s" s="113">
+      <c r="D23" t="s" s="135">
         <v>7</v>
       </c>
-      <c r="D23" t="s" s="114">
+      <c r="E23" t="s" s="136">
         <v>8</v>
       </c>
-      <c r="E23" t="s" s="115">
+      <c r="F23" t="s" s="137">
         <v>9</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="116">
+      <c r="A24" s="138">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="139">
         <v>54</v>
       </c>
-      <c r="B24" t="s" s="117">
+      <c r="C24" t="s" s="140">
         <v>55</v>
       </c>
-      <c r="C24" t="s" s="118">
+      <c r="D24" t="s" s="141">
         <v>7</v>
       </c>
-      <c r="D24" t="s" s="119">
+      <c r="E24" t="s" s="142">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="120">
+      <c r="F24" t="s" s="143">
         <v>9</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="121">
+      <c r="A25" s="144">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="145">
         <v>56</v>
       </c>
-      <c r="B25" t="s" s="122">
+      <c r="C25" t="s" s="146">
         <v>57</v>
       </c>
-      <c r="C25" t="s" s="123">
+      <c r="D25" t="s" s="147">
         <v>7</v>
       </c>
-      <c r="D25" t="s" s="124">
+      <c r="E25" t="s" s="148">
         <v>8</v>
       </c>
-      <c r="E25" t="s" s="125">
+      <c r="F25" t="s" s="149">
         <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="126">
+      <c r="A26" s="150">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="151">
         <v>58</v>
       </c>
-      <c r="B26" t="s" s="127">
+      <c r="C26" t="s" s="152">
         <v>59</v>
       </c>
-      <c r="C26" t="s" s="128">
+      <c r="D26" t="s" s="153">
         <v>7</v>
       </c>
-      <c r="D26" t="s" s="129">
+      <c r="E26" t="s" s="154">
         <v>60</v>
       </c>
-      <c r="E26" t="s" s="130">
+      <c r="F26" t="s" s="155">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="131">
+      <c r="A27" s="156">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="157">
         <v>61</v>
       </c>
-      <c r="B27" t="s" s="132">
+      <c r="C27" t="s" s="158">
         <v>62</v>
       </c>
-      <c r="C27" t="s" s="133">
+      <c r="D27" t="s" s="159">
         <v>7</v>
       </c>
-      <c r="D27" t="s" s="134">
+      <c r="E27" t="s" s="160">
         <v>8</v>
       </c>
-      <c r="E27" t="s" s="135">
+      <c r="F27" t="s" s="161">
         <v>9</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="136">
+      <c r="A28" s="162">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="163">
         <v>63</v>
       </c>
-      <c r="B28" t="s" s="137">
+      <c r="C28" t="s" s="164">
         <v>64</v>
       </c>
-      <c r="C28" t="s" s="138">
+      <c r="D28" t="s" s="165">
         <v>7</v>
       </c>
-      <c r="D28" t="s" s="139">
+      <c r="E28" t="s" s="166">
         <v>8</v>
       </c>
-      <c r="E28" t="s" s="140">
+      <c r="F28" t="s" s="167">
         <v>9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="141">
+      <c r="A29" s="168">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="169">
         <v>65</v>
       </c>
-      <c r="B29" t="s" s="142">
+      <c r="C29" t="s" s="170">
         <v>66</v>
       </c>
-      <c r="C29" t="s" s="143">
+      <c r="D29" t="s" s="171">
         <v>7</v>
       </c>
-      <c r="D29" t="s" s="144">
+      <c r="E29" t="s" s="172">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="145">
+      <c r="F29" t="s" s="173">
         <v>9</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="146">
+      <c r="A30" s="174">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="175">
         <v>67</v>
       </c>
-      <c r="B30" t="s" s="147">
+      <c r="C30" t="s" s="176">
         <v>68</v>
       </c>
-      <c r="C30" t="s" s="148">
+      <c r="D30" t="s" s="177">
         <v>7</v>
       </c>
-      <c r="D30" t="s" s="149">
+      <c r="E30" t="s" s="178">
         <v>8</v>
       </c>
-      <c r="E30" t="s" s="150">
+      <c r="F30" t="s" s="179">
         <v>9</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="151">
+      <c r="A31" s="180">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="181">
         <v>69</v>
       </c>
-      <c r="B31" t="s" s="152">
+      <c r="C31" t="s" s="182">
         <v>70</v>
       </c>
-      <c r="C31" t="s" s="153">
+      <c r="D31" t="s" s="183">
         <v>7</v>
       </c>
-      <c r="D31" t="s" s="154">
+      <c r="E31" t="s" s="184">
         <v>8</v>
       </c>
-      <c r="E31" t="s" s="155">
+      <c r="F31" t="s" s="185">
         <v>9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="156">
+      <c r="A32" s="186">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="187">
         <v>71</v>
       </c>
-      <c r="B32" t="s" s="157">
+      <c r="C32" t="s" s="188">
         <v>72</v>
       </c>
-      <c r="C32" t="s" s="158">
+      <c r="D32" t="s" s="189">
         <v>7</v>
       </c>
-      <c r="D32" t="s" s="159">
+      <c r="E32" t="s" s="190">
         <v>8</v>
       </c>
-      <c r="E32" t="s" s="160">
+      <c r="F32" t="s" s="191">
         <v>9</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="161">
+      <c r="A33" s="192">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="193">
         <v>73</v>
       </c>
-      <c r="B33" t="s" s="162">
+      <c r="C33" t="s" s="194">
         <v>74</v>
       </c>
-      <c r="C33" t="s" s="163">
+      <c r="D33" t="s" s="195">
         <v>7</v>
       </c>
-      <c r="D33" t="s" s="164">
+      <c r="E33" t="s" s="196">
         <v>8</v>
       </c>
-      <c r="E33" t="s" s="165">
+      <c r="F33" t="s" s="197">
         <v>9</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="166">
+      <c r="A34" s="198">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="199">
         <v>75</v>
       </c>
-      <c r="B34" t="s" s="167">
+      <c r="C34" t="s" s="200">
         <v>76</v>
       </c>
-      <c r="C34" t="s" s="168">
+      <c r="D34" t="s" s="201">
         <v>7</v>
       </c>
-      <c r="D34" t="s" s="169">
+      <c r="E34" t="s" s="202">
         <v>8</v>
       </c>
-      <c r="E34" t="s" s="170">
+      <c r="F34" t="s" s="203">
         <v>9</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="171">
+      <c r="A35" s="204">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="205">
         <v>77</v>
       </c>
-      <c r="B35" t="s" s="172">
+      <c r="C35" t="s" s="206">
         <v>78</v>
       </c>
-      <c r="C35" t="s" s="173">
+      <c r="D35" t="s" s="207">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="174">
+      <c r="E35" t="s" s="208">
         <v>79</v>
       </c>
-      <c r="E35" t="s" s="175">
+      <c r="F35" t="s" s="209">
         <v>9</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="176">
+      <c r="A36" s="210">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="211">
         <v>80</v>
       </c>
-      <c r="B36" t="s" s="177">
+      <c r="C36" t="s" s="212">
         <v>81</v>
       </c>
-      <c r="C36" t="s" s="178">
+      <c r="D36" t="s" s="213">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="179">
+      <c r="E36" t="s" s="214">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="180">
+      <c r="F36" t="s" s="215">
         <v>9</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="181">
+      <c r="A37" s="216">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="217">
         <v>82</v>
       </c>
-      <c r="B37" t="s" s="182">
+      <c r="C37" t="s" s="218">
         <v>83</v>
       </c>
-      <c r="C37" t="s" s="183">
+      <c r="D37" t="s" s="219">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="184">
+      <c r="E37" t="s" s="220">
         <v>8</v>
       </c>
-      <c r="E37" t="s" s="185">
+      <c r="F37" t="s" s="221">
         <v>9</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="186">
+      <c r="A38" s="222">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="223">
         <v>84</v>
       </c>
-      <c r="B38" t="s" s="187">
+      <c r="C38" t="s" s="224">
         <v>85</v>
       </c>
-      <c r="C38" t="s" s="188">
+      <c r="D38" t="s" s="225">
         <v>7</v>
       </c>
-      <c r="D38" t="s" s="189">
+      <c r="E38" t="s" s="226">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="190">
+      <c r="F38" t="s" s="227">
         <v>9</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="191">
+      <c r="A39" s="228">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="229">
         <v>86</v>
       </c>
-      <c r="B39" t="s" s="192">
+      <c r="C39" t="s" s="230">
         <v>87</v>
       </c>
-      <c r="C39" t="s" s="193">
+      <c r="D39" t="s" s="231">
         <v>7</v>
       </c>
-      <c r="D39" t="s" s="194">
+      <c r="E39" t="s" s="232">
         <v>8</v>
       </c>
-      <c r="E39" t="s" s="195">
+      <c r="F39" t="s" s="233">
         <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="196">
+      <c r="A40" s="234">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="235">
         <v>88</v>
       </c>
-      <c r="B40" t="s" s="197">
+      <c r="C40" t="s" s="236">
         <v>89</v>
       </c>
-      <c r="C40" t="s" s="198">
+      <c r="D40" t="s" s="237">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="199">
+      <c r="E40" t="s" s="238">
         <v>8</v>
       </c>
-      <c r="E40" t="s" s="200">
+      <c r="F40" t="s" s="239">
         <v>9</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="201">
+      <c r="A41" s="240">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="241">
         <v>90</v>
       </c>
-      <c r="B41" t="s" s="202">
+      <c r="C41" t="s" s="242">
         <v>91</v>
       </c>
-      <c r="C41" t="s" s="203">
+      <c r="D41" t="s" s="243">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="204">
+      <c r="E41" t="s" s="244">
         <v>8</v>
       </c>
-      <c r="E41" t="s" s="205">
+      <c r="F41" t="s" s="245">
         <v>9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="206">
+      <c r="A42" s="246">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="247">
         <v>92</v>
       </c>
-      <c r="B42" t="s" s="207">
+      <c r="C42" t="s" s="248">
         <v>93</v>
       </c>
-      <c r="C42" t="s" s="208">
+      <c r="D42" t="s" s="249">
         <v>7</v>
       </c>
-      <c r="D42" t="s" s="209">
+      <c r="E42" t="s" s="250">
         <v>8</v>
       </c>
-      <c r="E42" t="s" s="210">
+      <c r="F42" t="s" s="251">
         <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="211">
+      <c r="A43" s="252">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s" s="253">
         <v>94</v>
       </c>
-      <c r="B43" t="s" s="212">
+      <c r="C43" t="s" s="254">
         <v>95</v>
       </c>
-      <c r="C43" t="s" s="213">
+      <c r="D43" t="s" s="255">
         <v>7</v>
       </c>
-      <c r="D43" t="s" s="214">
+      <c r="E43" t="s" s="256">
         <v>8</v>
       </c>
-      <c r="E43" t="s" s="215">
+      <c r="F43" t="s" s="257">
         <v>9</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="216">
+      <c r="A44" s="258">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s" s="259">
         <v>96</v>
       </c>
-      <c r="B44" t="s" s="217">
+      <c r="C44" t="s" s="260">
         <v>97</v>
       </c>
-      <c r="C44" t="s" s="218">
+      <c r="D44" t="s" s="261">
         <v>7</v>
       </c>
-      <c r="D44" t="s" s="219">
+      <c r="E44" t="s" s="262">
         <v>8</v>
       </c>
-      <c r="E44" t="s" s="220">
+      <c r="F44" t="s" s="263">
         <v>9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="221">
+      <c r="A45" s="264">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s" s="265">
         <v>98</v>
       </c>
-      <c r="B45" t="s" s="222">
+      <c r="C45" t="s" s="266">
         <v>99</v>
       </c>
-      <c r="C45" t="s" s="223">
+      <c r="D45" t="s" s="267">
         <v>7</v>
       </c>
-      <c r="D45" t="s" s="224">
+      <c r="E45" t="s" s="268">
         <v>15</v>
       </c>
-      <c r="E45" t="s" s="225">
+      <c r="F45" t="s" s="269">
         <v>9</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="226">
+      <c r="A46" s="270">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s" s="271">
         <v>100</v>
       </c>
-      <c r="B46" t="s" s="227">
+      <c r="C46" t="s" s="272">
         <v>101</v>
       </c>
-      <c r="C46" t="s" s="228">
+      <c r="D46" t="s" s="273">
         <v>7</v>
       </c>
-      <c r="D46" t="s" s="229">
+      <c r="E46" t="s" s="274">
         <v>102</v>
       </c>
-      <c r="E46" t="s" s="230">
+      <c r="F46" t="s" s="275">
         <v>9</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="231">
+      <c r="A47" s="276">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="277">
         <v>103</v>
       </c>
-      <c r="B47" t="s" s="232">
+      <c r="C47" t="s" s="278">
         <v>104</v>
       </c>
-      <c r="C47" t="s" s="233">
+      <c r="D47" t="s" s="279">
         <v>7</v>
       </c>
-      <c r="D47" t="s" s="234">
+      <c r="E47" t="s" s="280">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="235">
+      <c r="F47" t="s" s="281">
         <v>9</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="236">
+      <c r="A48" s="282">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s" s="283">
         <v>105</v>
       </c>
-      <c r="B48" t="s" s="237">
+      <c r="C48" t="s" s="284">
         <v>106</v>
       </c>
-      <c r="C48" t="s" s="238">
+      <c r="D48" t="s" s="285">
         <v>7</v>
       </c>
-      <c r="D48" t="s" s="239">
+      <c r="E48" t="s" s="286">
         <v>107</v>
       </c>
-      <c r="E48" t="s" s="240">
+      <c r="F48" t="s" s="287">
         <v>9</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="241">
+      <c r="A49" s="288">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s" s="289">
         <v>108</v>
       </c>
-      <c r="B49" t="s" s="242">
+      <c r="C49" t="s" s="290">
         <v>109</v>
       </c>
-      <c r="C49" t="s" s="243">
+      <c r="D49" t="s" s="291">
         <v>7</v>
       </c>
-      <c r="D49" t="s" s="244">
+      <c r="E49" t="s" s="292">
         <v>110</v>
       </c>
-      <c r="E49" t="s" s="245">
+      <c r="F49" t="s" s="293">
         <v>9</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="246">
+      <c r="A50" s="294">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s" s="295">
         <v>111</v>
       </c>
-      <c r="B50" t="s" s="247">
+      <c r="C50" t="s" s="296">
         <v>112</v>
       </c>
-      <c r="C50" t="s" s="248">
+      <c r="D50" t="s" s="297">
         <v>7</v>
       </c>
-      <c r="D50" t="s" s="249">
+      <c r="E50" t="s" s="298">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="250">
+      <c r="F50" t="s" s="299">
         <v>9</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="251">
+      <c r="A51" s="300">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s" s="301">
         <v>113</v>
       </c>
-      <c r="B51" t="s" s="252">
+      <c r="C51" t="s" s="302">
         <v>114</v>
       </c>
-      <c r="C51" t="s" s="253">
+      <c r="D51" t="s" s="303">
         <v>7</v>
       </c>
-      <c r="D51" t="s" s="254">
+      <c r="E51" t="s" s="304">
         <v>8</v>
       </c>
-      <c r="E51" t="s" s="255">
+      <c r="F51" t="s" s="305">
         <v>9</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="256">
+      <c r="A52" s="306">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s" s="307">
         <v>115</v>
       </c>
-      <c r="B52" t="s" s="257">
+      <c r="C52" t="s" s="308">
         <v>116</v>
       </c>
-      <c r="C52" t="s" s="258">
+      <c r="D52" t="s" s="309">
         <v>7</v>
       </c>
-      <c r="D52" t="s" s="259">
+      <c r="E52" t="s" s="310">
         <v>8</v>
       </c>
-      <c r="E52" t="s" s="260">
+      <c r="F52" t="s" s="311">
         <v>9</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="261">
+      <c r="A53" s="312">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s" s="313">
         <v>117</v>
       </c>
-      <c r="B53" t="s" s="262">
+      <c r="C53" t="s" s="314">
         <v>118</v>
       </c>
-      <c r="C53" t="s" s="263">
+      <c r="D53" t="s" s="315">
         <v>7</v>
       </c>
-      <c r="D53" t="s" s="264">
+      <c r="E53" t="s" s="316">
         <v>8</v>
       </c>
-      <c r="E53" t="s" s="265">
+      <c r="F53" t="s" s="317">
         <v>9</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="266">
+      <c r="A54" s="318">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s" s="319">
         <v>119</v>
       </c>
-      <c r="B54" t="s" s="267">
+      <c r="C54" t="s" s="320">
         <v>120</v>
       </c>
-      <c r="C54" t="s" s="268">
+      <c r="D54" t="s" s="321">
         <v>7</v>
       </c>
-      <c r="D54" t="s" s="269">
+      <c r="E54" t="s" s="322">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="270">
+      <c r="F54" t="s" s="323">
         <v>9</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="271">
+      <c r="A55" s="324">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="325">
         <v>121</v>
       </c>
-      <c r="B55" t="s" s="272">
+      <c r="C55" t="s" s="326">
         <v>122</v>
       </c>
-      <c r="C55" t="s" s="273">
+      <c r="D55" t="s" s="327">
         <v>7</v>
       </c>
-      <c r="D55" t="s" s="274">
+      <c r="E55" t="s" s="328">
         <v>79</v>
       </c>
-      <c r="E55" t="s" s="275">
+      <c r="F55" t="s" s="329">
         <v>9</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="276">
+      <c r="A56" s="330">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s" s="331">
         <v>123</v>
       </c>
-      <c r="B56" t="s" s="277">
+      <c r="C56" t="s" s="332">
         <v>124</v>
       </c>
-      <c r="C56" t="s" s="278">
+      <c r="D56" t="s" s="333">
         <v>7</v>
       </c>
-      <c r="D56" t="s" s="279">
+      <c r="E56" t="s" s="334">
         <v>8</v>
       </c>
-      <c r="E56" t="s" s="280">
+      <c r="F56" t="s" s="335">
         <v>9</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="281">
+      <c r="A57" s="336">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s" s="337">
         <v>125</v>
       </c>
-      <c r="B57" t="s" s="282">
+      <c r="C57" t="s" s="338">
         <v>126</v>
       </c>
-      <c r="C57" t="s" s="283">
+      <c r="D57" t="s" s="339">
         <v>7</v>
       </c>
-      <c r="D57" t="s" s="284">
+      <c r="E57" t="s" s="340">
         <v>8</v>
       </c>
-      <c r="E57" t="s" s="285">
+      <c r="F57" t="s" s="341">
         <v>9</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="286">
+      <c r="A58" s="342">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="343">
         <v>127</v>
       </c>
-      <c r="B58" t="s" s="287">
+      <c r="C58" t="s" s="344">
         <v>128</v>
       </c>
-      <c r="C58" t="s" s="288">
+      <c r="D58" t="s" s="345">
         <v>7</v>
       </c>
-      <c r="D58" t="s" s="289">
+      <c r="E58" t="s" s="346">
         <v>8</v>
       </c>
-      <c r="E58" t="s" s="290">
+      <c r="F58" t="s" s="347">
         <v>9</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="291">
+      <c r="A59" s="348">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s" s="349">
         <v>129</v>
       </c>
-      <c r="B59" t="s" s="292">
+      <c r="C59" t="s" s="350">
         <v>130</v>
       </c>
-      <c r="C59" t="s" s="293">
+      <c r="D59" t="s" s="351">
         <v>7</v>
       </c>
-      <c r="D59" t="s" s="294">
+      <c r="E59" t="s" s="352">
         <v>8</v>
       </c>
-      <c r="E59" t="s" s="295">
+      <c r="F59" t="s" s="353">
         <v>9</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="296">
+      <c r="A60" s="354">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s" s="355">
         <v>131</v>
       </c>
-      <c r="B60" t="s" s="297">
+      <c r="C60" t="s" s="356">
         <v>132</v>
       </c>
-      <c r="C60" t="s" s="298">
+      <c r="D60" t="s" s="357">
         <v>7</v>
       </c>
-      <c r="D60" t="s" s="299">
+      <c r="E60" t="s" s="358">
         <v>8</v>
       </c>
-      <c r="E60" t="s" s="300">
+      <c r="F60" t="s" s="359">
         <v>9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="301">
+      <c r="A61" s="360">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s" s="361">
         <v>133</v>
       </c>
-      <c r="B61" t="s" s="302">
+      <c r="C61" t="s" s="362">
         <v>134</v>
       </c>
-      <c r="C61" t="s" s="303">
+      <c r="D61" t="s" s="363">
         <v>7</v>
       </c>
-      <c r="D61" t="s" s="304">
+      <c r="E61" t="s" s="364">
         <v>8</v>
       </c>
-      <c r="E61" t="s" s="305">
+      <c r="F61" t="s" s="365">
         <v>9</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="306">
+      <c r="A62" s="366">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s" s="367">
         <v>135</v>
       </c>
-      <c r="B62" t="s" s="307">
+      <c r="C62" t="s" s="368">
         <v>136</v>
       </c>
-      <c r="C62" t="s" s="308">
+      <c r="D62" t="s" s="369">
         <v>7</v>
       </c>
-      <c r="D62" t="s" s="309">
+      <c r="E62" t="s" s="370">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="310">
+      <c r="F62" t="s" s="371">
         <v>9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="311">
+      <c r="A63" s="372">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s" s="373">
         <v>137</v>
       </c>
-      <c r="B63" t="s" s="312">
+      <c r="C63" t="s" s="374">
         <v>138</v>
       </c>
-      <c r="C63" t="s" s="313">
+      <c r="D63" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="D63" t="s" s="314">
+      <c r="E63" t="s" s="376">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="315">
+      <c r="F63" t="s" s="377">
         <v>9</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="316">
+      <c r="A64" s="378">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s" s="379">
         <v>139</v>
       </c>
-      <c r="B64" t="s" s="317">
+      <c r="C64" t="s" s="380">
         <v>140</v>
       </c>
-      <c r="C64" t="s" s="318">
+      <c r="D64" t="s" s="381">
         <v>7</v>
       </c>
-      <c r="D64" t="s" s="319">
+      <c r="E64" t="s" s="382">
         <v>8</v>
       </c>
-      <c r="E64" t="s" s="320">
+      <c r="F64" t="s" s="383">
         <v>9</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="321">
+      <c r="A65" s="384">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s" s="385">
         <v>141</v>
       </c>
-      <c r="B65" t="s" s="322">
+      <c r="C65" t="s" s="386">
         <v>142</v>
       </c>
-      <c r="C65" t="s" s="323">
+      <c r="D65" t="s" s="387">
         <v>7</v>
       </c>
-      <c r="D65" t="s" s="324">
+      <c r="E65" t="s" s="388">
         <v>8</v>
       </c>
-      <c r="E65" t="s" s="325">
+      <c r="F65" t="s" s="389">
         <v>9</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="326">
+      <c r="A66" s="390">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s" s="391">
         <v>143</v>
       </c>
-      <c r="B66" t="s" s="327">
+      <c r="C66" t="s" s="392">
         <v>144</v>
       </c>
-      <c r="C66" t="s" s="328">
+      <c r="D66" t="s" s="393">
         <v>7</v>
       </c>
-      <c r="D66" t="s" s="329">
+      <c r="E66" t="s" s="394">
         <v>145</v>
       </c>
-      <c r="E66" t="s" s="330">
+      <c r="F66" t="s" s="395">
         <v>9</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="331">
+      <c r="A67" s="396">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s" s="397">
         <v>146</v>
       </c>
-      <c r="B67" t="s" s="332">
+      <c r="C67" t="s" s="398">
         <v>147</v>
       </c>
-      <c r="C67" t="s" s="333">
+      <c r="D67" t="s" s="399">
         <v>7</v>
       </c>
-      <c r="D67" t="s" s="334">
+      <c r="E67" t="s" s="400">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="335">
+      <c r="F67" t="s" s="401">
         <v>9</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="336">
+      <c r="A68" s="402">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s" s="403">
         <v>148</v>
       </c>
-      <c r="B68" t="s" s="337">
+      <c r="C68" t="s" s="404">
         <v>149</v>
       </c>
-      <c r="C68" t="s" s="338">
+      <c r="D68" t="s" s="405">
         <v>7</v>
       </c>
-      <c r="D68" t="s" s="339">
+      <c r="E68" t="s" s="406">
         <v>8</v>
       </c>
-      <c r="E68" t="s" s="340">
+      <c r="F68" t="s" s="407">
         <v>9</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="341">
+      <c r="A69" s="408">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s" s="409">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="342">
+      <c r="C69" t="s" s="410">
         <v>151</v>
       </c>
-      <c r="C69" t="s" s="343">
+      <c r="D69" t="s" s="411">
         <v>7</v>
       </c>
-      <c r="D69" t="s" s="344">
+      <c r="E69" t="s" s="412">
         <v>8</v>
       </c>
-      <c r="E69" t="s" s="345">
+      <c r="F69" t="s" s="413">
         <v>9</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="346">
+      <c r="A70" s="414">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s" s="415">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="347">
+      <c r="C70" t="s" s="416">
         <v>153</v>
       </c>
-      <c r="C70" t="s" s="348">
+      <c r="D70" t="s" s="417">
         <v>7</v>
       </c>
-      <c r="D70" t="s" s="349">
+      <c r="E70" t="s" s="418">
         <v>8</v>
       </c>
-      <c r="E70" t="s" s="350">
+      <c r="F70" t="s" s="419">
         <v>9</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="351">
+      <c r="A71" s="420">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s" s="421">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="352">
+      <c r="C71" t="s" s="422">
         <v>155</v>
       </c>
-      <c r="C71" t="s" s="353">
+      <c r="D71" t="s" s="423">
         <v>7</v>
       </c>
-      <c r="D71" t="s" s="354">
+      <c r="E71" t="s" s="424">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="355">
+      <c r="F71" t="s" s="425">
         <v>9</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="356">
+      <c r="A72" s="426">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s" s="427">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="357">
+      <c r="C72" t="s" s="428">
         <v>157</v>
       </c>
-      <c r="C72" t="s" s="358">
+      <c r="D72" t="s" s="429">
         <v>7</v>
       </c>
-      <c r="D72" t="s" s="359">
+      <c r="E72" t="s" s="430">
         <v>8</v>
       </c>
-      <c r="E72" t="s" s="360">
+      <c r="F72" t="s" s="431">
         <v>9</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="361">
+      <c r="A73" s="432">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s" s="433">
         <v>158</v>
       </c>
-      <c r="B73" t="s" s="362">
+      <c r="C73" t="s" s="434">
         <v>159</v>
       </c>
-      <c r="C73" t="s" s="363">
+      <c r="D73" t="s" s="435">
         <v>7</v>
       </c>
-      <c r="D73" t="s" s="364">
+      <c r="E73" t="s" s="436">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="365">
+      <c r="F73" t="s" s="437">
         <v>9</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="366">
+      <c r="A74" s="438">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s" s="439">
         <v>160</v>
       </c>
-      <c r="B74" t="s" s="367">
+      <c r="C74" t="s" s="440">
         <v>161</v>
       </c>
-      <c r="C74" t="s" s="368">
+      <c r="D74" t="s" s="441">
         <v>7</v>
       </c>
-      <c r="D74" t="s" s="369">
+      <c r="E74" t="s" s="442">
         <v>8</v>
       </c>
-      <c r="E74" t="s" s="370">
+      <c r="F74" t="s" s="443">
         <v>9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="371">
+      <c r="A75" s="444">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s" s="445">
         <v>162</v>
       </c>
-      <c r="B75" t="s" s="372">
+      <c r="C75" t="s" s="446">
         <v>163</v>
       </c>
-      <c r="C75" t="s" s="373">
+      <c r="D75" t="s" s="447">
         <v>7</v>
       </c>
-      <c r="D75" t="s" s="374">
+      <c r="E75" t="s" s="448">
         <v>8</v>
       </c>
-      <c r="E75" t="s" s="375">
+      <c r="F75" t="s" s="449">
         <v>9</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="376">
+      <c r="A76" s="450">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s" s="451">
         <v>164</v>
       </c>
-      <c r="B76" t="s" s="377">
+      <c r="C76" t="s" s="452">
         <v>165</v>
       </c>
-      <c r="C76" t="s" s="378">
+      <c r="D76" t="s" s="453">
         <v>7</v>
       </c>
-      <c r="D76" t="s" s="379">
+      <c r="E76" t="s" s="454">
         <v>15</v>
       </c>
-      <c r="E76" t="s" s="380">
+      <c r="F76" t="s" s="455">
         <v>9</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="381">
+      <c r="A77" s="456">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s" s="457">
         <v>166</v>
       </c>
-      <c r="B77" t="s" s="382">
+      <c r="C77" t="s" s="458">
         <v>167</v>
       </c>
-      <c r="C77" t="s" s="383">
+      <c r="D77" t="s" s="459">
         <v>7</v>
       </c>
-      <c r="D77" t="s" s="384">
+      <c r="E77" t="s" s="460">
         <v>8</v>
       </c>
-      <c r="E77" t="s" s="385">
+      <c r="F77" t="s" s="461">
         <v>9</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="386">
+      <c r="A78" s="462">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s" s="463">
         <v>168</v>
       </c>
-      <c r="B78" t="s" s="387">
+      <c r="C78" t="s" s="464">
         <v>169</v>
       </c>
-      <c r="C78" t="s" s="388">
+      <c r="D78" t="s" s="465">
         <v>7</v>
       </c>
-      <c r="D78" t="s" s="389">
+      <c r="E78" t="s" s="466">
         <v>8</v>
       </c>
-      <c r="E78" t="s" s="390">
+      <c r="F78" t="s" s="467">
         <v>9</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="391">
+      <c r="A79" s="468">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s" s="469">
         <v>170</v>
       </c>
-      <c r="B79" t="s" s="392">
+      <c r="C79" t="s" s="470">
         <v>171</v>
       </c>
-      <c r="C79" t="s" s="393">
+      <c r="D79" t="s" s="471">
         <v>7</v>
       </c>
-      <c r="D79" t="s" s="394">
+      <c r="E79" t="s" s="472">
         <v>8</v>
       </c>
-      <c r="E79" t="s" s="395">
+      <c r="F79" t="s" s="473">
         <v>9</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="396">
+      <c r="A80" s="474">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s" s="475">
         <v>172</v>
       </c>
-      <c r="B80" t="s" s="397">
+      <c r="C80" t="s" s="476">
         <v>173</v>
       </c>
-      <c r="C80" t="s" s="398">
+      <c r="D80" t="s" s="477">
         <v>7</v>
       </c>
-      <c r="D80" t="s" s="399">
+      <c r="E80" t="s" s="478">
         <v>8</v>
       </c>
-      <c r="E80" t="s" s="400">
+      <c r="F80" t="s" s="479">
         <v>9</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="401">
+      <c r="A81" s="480">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s" s="481">
         <v>174</v>
       </c>
-      <c r="B81" t="s" s="402">
+      <c r="C81" t="s" s="482">
         <v>175</v>
       </c>
-      <c r="C81" t="s" s="403">
+      <c r="D81" t="s" s="483">
         <v>7</v>
       </c>
-      <c r="D81" t="s" s="404">
+      <c r="E81" t="s" s="484">
         <v>8</v>
       </c>
-      <c r="E81" t="s" s="405">
+      <c r="F81" t="s" s="485">
         <v>9</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="406">
+      <c r="A82" s="486">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s" s="487">
         <v>176</v>
       </c>
-      <c r="B82" t="s" s="407">
+      <c r="C82" t="s" s="488">
         <v>177</v>
       </c>
-      <c r="C82" t="s" s="408">
+      <c r="D82" t="s" s="489">
         <v>7</v>
       </c>
-      <c r="D82" t="s" s="409">
+      <c r="E82" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="E82" t="s" s="410">
+      <c r="F82" t="s" s="491">
         <v>9</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="411">
+      <c r="A83" s="492">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s" s="493">
         <v>178</v>
       </c>
-      <c r="B83" t="s" s="412">
+      <c r="C83" t="s" s="494">
         <v>179</v>
       </c>
-      <c r="C83" t="s" s="413">
+      <c r="D83" t="s" s="495">
         <v>7</v>
       </c>
-      <c r="D83" t="s" s="414">
+      <c r="E83" t="s" s="496">
         <v>8</v>
       </c>
-      <c r="E83" t="s" s="415">
+      <c r="F83" t="s" s="497">
         <v>9</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="416">
+      <c r="A84" s="498">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s" s="499">
         <v>180</v>
       </c>
-      <c r="B84" t="s" s="417">
+      <c r="C84" t="s" s="500">
         <v>181</v>
       </c>
-      <c r="C84" t="s" s="418">
+      <c r="D84" t="s" s="501">
         <v>7</v>
       </c>
-      <c r="D84" t="s" s="419">
+      <c r="E84" t="s" s="502">
         <v>8</v>
       </c>
-      <c r="E84" t="s" s="420">
+      <c r="F84" t="s" s="503">
         <v>9</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="421">
+      <c r="A85" s="504">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s" s="505">
         <v>182</v>
       </c>
-      <c r="B85" t="s" s="422">
+      <c r="C85" t="s" s="506">
         <v>183</v>
       </c>
-      <c r="C85" t="s" s="423">
+      <c r="D85" t="s" s="507">
         <v>7</v>
       </c>
-      <c r="D85" t="s" s="424">
+      <c r="E85" t="s" s="508">
         <v>8</v>
       </c>
-      <c r="E85" t="s" s="425">
+      <c r="F85" t="s" s="509">
         <v>9</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="426">
+      <c r="A86" s="510">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s" s="511">
         <v>184</v>
       </c>
-      <c r="B86" t="s" s="427">
+      <c r="C86" t="s" s="512">
         <v>185</v>
       </c>
-      <c r="C86" t="s" s="428">
+      <c r="D86" t="s" s="513">
         <v>7</v>
       </c>
-      <c r="D86" t="s" s="429">
+      <c r="E86" t="s" s="514">
         <v>8</v>
       </c>
-      <c r="E86" t="s" s="430">
+      <c r="F86" t="s" s="515">
         <v>9</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="431">
+      <c r="A87" s="516">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s" s="517">
         <v>186</v>
       </c>
-      <c r="B87" t="s" s="432">
+      <c r="C87" t="s" s="518">
         <v>187</v>
       </c>
-      <c r="C87" t="s" s="433">
+      <c r="D87" t="s" s="519">
         <v>7</v>
       </c>
-      <c r="D87" t="s" s="434">
+      <c r="E87" t="s" s="520">
         <v>8</v>
       </c>
-      <c r="E87" t="s" s="435">
+      <c r="F87" t="s" s="521">
         <v>9</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="436">
+      <c r="A88" s="522">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s" s="523">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="437">
+      <c r="C88" t="s" s="524">
         <v>189</v>
       </c>
-      <c r="C88" t="s" s="438">
+      <c r="D88" t="s" s="525">
         <v>7</v>
       </c>
-      <c r="D88" t="s" s="439">
+      <c r="E88" t="s" s="526">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="440">
+      <c r="F88" t="s" s="527">
         <v>9</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="441">
+      <c r="A89" s="528">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s" s="529">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="442">
+      <c r="C89" t="s" s="530">
         <v>191</v>
       </c>
-      <c r="C89" t="s" s="443">
+      <c r="D89" t="s" s="531">
         <v>7</v>
       </c>
-      <c r="D89" t="s" s="444">
+      <c r="E89" t="s" s="532">
         <v>8</v>
       </c>
-      <c r="E89" t="s" s="445">
+      <c r="F89" t="s" s="533">
         <v>9</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="446">
+      <c r="A90" s="534">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s" s="535">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="447">
+      <c r="C90" t="s" s="536">
         <v>193</v>
       </c>
-      <c r="C90" t="s" s="448">
+      <c r="D90" t="s" s="537">
         <v>7</v>
       </c>
-      <c r="D90" t="s" s="449">
+      <c r="E90" t="s" s="538">
         <v>8</v>
       </c>
-      <c r="E90" t="s" s="450">
+      <c r="F90" t="s" s="539">
         <v>9</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="451">
+      <c r="A91" s="540">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s" s="541">
         <v>194</v>
       </c>
-      <c r="B91" t="s" s="452">
+      <c r="C91" t="s" s="542">
         <v>195</v>
       </c>
-      <c r="C91" t="s" s="453">
+      <c r="D91" t="s" s="543">
         <v>7</v>
       </c>
-      <c r="D91" t="s" s="454">
+      <c r="E91" t="s" s="544">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="455">
+      <c r="F91" t="s" s="545">
         <v>9</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="456">
+      <c r="A92" s="546">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s" s="547">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="457">
+      <c r="C92" t="s" s="548">
         <v>197</v>
       </c>
-      <c r="C92" t="s" s="458">
+      <c r="D92" t="s" s="549">
         <v>7</v>
       </c>
-      <c r="D92" t="s" s="459">
+      <c r="E92" t="s" s="550">
         <v>8</v>
       </c>
-      <c r="E92" t="s" s="460">
+      <c r="F92" t="s" s="551">
         <v>9</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="461">
+      <c r="A93" s="552">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s" s="553">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="462">
+      <c r="C93" t="s" s="554">
         <v>199</v>
       </c>
-      <c r="C93" t="s" s="463">
+      <c r="D93" t="s" s="555">
         <v>7</v>
       </c>
-      <c r="D93" t="s" s="464">
+      <c r="E93" t="s" s="556">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="465">
+      <c r="F93" t="s" s="557">
         <v>9</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="466">
+      <c r="A94" s="558">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s" s="559">
         <v>200</v>
       </c>
-      <c r="B94" t="s" s="467">
+      <c r="C94" t="s" s="560">
         <v>201</v>
       </c>
-      <c r="C94" t="s" s="468">
+      <c r="D94" t="s" s="561">
         <v>7</v>
       </c>
-      <c r="D94" t="s" s="469">
+      <c r="E94" t="s" s="562">
         <v>8</v>
       </c>
-      <c r="E94" t="s" s="470">
+      <c r="F94" t="s" s="563">
         <v>9</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="471">
+      <c r="A95" s="564">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s" s="565">
         <v>202</v>
       </c>
-      <c r="B95" t="s" s="472">
+      <c r="C95" t="s" s="566">
         <v>203</v>
       </c>
-      <c r="C95" t="s" s="473">
+      <c r="D95" t="s" s="567">
         <v>7</v>
       </c>
-      <c r="D95" t="s" s="474">
+      <c r="E95" t="s" s="568">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="475">
+      <c r="F95" t="s" s="569">
         <v>9</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="476">
+      <c r="A96" s="570">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s" s="571">
         <v>204</v>
       </c>
-      <c r="B96" t="s" s="477">
+      <c r="C96" t="s" s="572">
         <v>205</v>
       </c>
-      <c r="C96" t="s" s="478">
+      <c r="D96" t="s" s="573">
         <v>7</v>
       </c>
-      <c r="D96" t="s" s="479">
+      <c r="E96" t="s" s="574">
         <v>8</v>
       </c>
-      <c r="E96" t="s" s="480">
+      <c r="F96" t="s" s="575">
         <v>9</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="481">
+      <c r="A97" s="576">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s" s="577">
         <v>206</v>
       </c>
-      <c r="B97" t="s" s="482">
+      <c r="C97" t="s" s="578">
         <v>207</v>
       </c>
-      <c r="C97" t="s" s="483">
+      <c r="D97" t="s" s="579">
         <v>7</v>
       </c>
-      <c r="D97" t="s" s="484">
+      <c r="E97" t="s" s="580">
         <v>15</v>
       </c>
-      <c r="E97" t="s" s="485">
+      <c r="F97" t="s" s="581">
         <v>9</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="486">
+      <c r="A98" s="582">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s" s="583">
         <v>208</v>
       </c>
-      <c r="B98" t="s" s="487">
+      <c r="C98" t="s" s="584">
         <v>209</v>
       </c>
-      <c r="C98" t="s" s="488">
+      <c r="D98" t="s" s="585">
         <v>7</v>
       </c>
-      <c r="D98" t="s" s="489">
+      <c r="E98" t="s" s="586">
         <v>8</v>
       </c>
-      <c r="E98" t="s" s="490">
+      <c r="F98" t="s" s="587">
         <v>9</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="491">
+      <c r="A99" s="588">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s" s="589">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="492">
+      <c r="C99" t="s" s="590">
         <v>211</v>
       </c>
-      <c r="C99" t="s" s="493">
+      <c r="D99" t="s" s="591">
         <v>7</v>
       </c>
-      <c r="D99" t="s" s="494">
+      <c r="E99" t="s" s="592">
         <v>8</v>
       </c>
-      <c r="E99" t="s" s="495">
+      <c r="F99" t="s" s="593">
         <v>9</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="496">
+      <c r="A100" s="594">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s" s="595">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="497">
+      <c r="C100" t="s" s="596">
         <v>213</v>
       </c>
-      <c r="C100" t="s" s="498">
+      <c r="D100" t="s" s="597">
         <v>7</v>
       </c>
-      <c r="D100" t="s" s="499">
+      <c r="E100" t="s" s="598">
         <v>8</v>
       </c>
-      <c r="E100" t="s" s="500">
+      <c r="F100" t="s" s="599">
         <v>9</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="501">
+      <c r="A101" s="600">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s" s="601">
         <v>214</v>
       </c>
-      <c r="B101" t="s" s="502">
+      <c r="C101" t="s" s="602">
         <v>215</v>
       </c>
-      <c r="C101" t="s" s="503">
+      <c r="D101" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="D101" t="s" s="504">
+      <c r="E101" t="s" s="604">
         <v>8</v>
       </c>
-      <c r="E101" t="s" s="505">
+      <c r="F101" t="s" s="605">
         <v>9</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="506">
+      <c r="A102" s="606">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s" s="607">
         <v>216</v>
       </c>
-      <c r="B102" t="s" s="507">
+      <c r="C102" t="s" s="608">
         <v>217</v>
       </c>
-      <c r="C102" t="s" s="508">
+      <c r="D102" t="s" s="609">
         <v>7</v>
       </c>
-      <c r="D102" t="s" s="509">
+      <c r="E102" t="s" s="610">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="510">
+      <c r="F102" t="s" s="611">
         <v>9</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="511">
+      <c r="A103" s="612">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s" s="613">
         <v>218</v>
       </c>
-      <c r="B103" t="s" s="512">
+      <c r="C103" t="s" s="614">
         <v>219</v>
       </c>
-      <c r="C103" t="s" s="513">
+      <c r="D103" t="s" s="615">
         <v>7</v>
       </c>
-      <c r="D103" t="s" s="514">
+      <c r="E103" t="s" s="616">
         <v>8</v>
       </c>
-      <c r="E103" t="s" s="515">
+      <c r="F103" t="s" s="617">
         <v>9</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="516">
+      <c r="A104" s="618">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s" s="619">
         <v>220</v>
       </c>
-      <c r="B104" t="s" s="517">
+      <c r="C104" t="s" s="620">
         <v>221</v>
       </c>
-      <c r="C104" t="s" s="518">
+      <c r="D104" t="s" s="621">
         <v>7</v>
       </c>
-      <c r="D104" t="s" s="519">
+      <c r="E104" t="s" s="622">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="520">
+      <c r="F104" t="s" s="623">
         <v>9</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="521">
+      <c r="A105" s="624">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s" s="625">
         <v>222</v>
       </c>
-      <c r="B105" t="s" s="522">
+      <c r="C105" t="s" s="626">
         <v>223</v>
       </c>
-      <c r="C105" t="s" s="523">
+      <c r="D105" t="s" s="627">
         <v>7</v>
       </c>
-      <c r="D105" t="s" s="524">
+      <c r="E105" t="s" s="628">
         <v>8</v>
       </c>
-      <c r="E105" t="s" s="525">
+      <c r="F105" t="s" s="629">
         <v>9</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="526">
+      <c r="A106" s="630">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s" s="631">
         <v>224</v>
       </c>
-      <c r="B106" t="s" s="527">
+      <c r="C106" t="s" s="632">
         <v>225</v>
       </c>
-      <c r="C106" t="s" s="528">
+      <c r="D106" t="s" s="633">
         <v>7</v>
       </c>
-      <c r="D106" t="s" s="529">
+      <c r="E106" t="s" s="634">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="530">
+      <c r="F106" t="s" s="635">
         <v>9</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="531">
+      <c r="A107" s="636">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s" s="637">
         <v>226</v>
       </c>
-      <c r="B107" t="s" s="532">
+      <c r="C107" t="s" s="638">
         <v>227</v>
       </c>
-      <c r="C107" t="s" s="533">
+      <c r="D107" t="s" s="639">
         <v>7</v>
       </c>
-      <c r="D107" t="s" s="534">
+      <c r="E107" t="s" s="640">
         <v>8</v>
       </c>
-      <c r="E107" t="s" s="535">
+      <c r="F107" t="s" s="641">
         <v>9</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="536">
+      <c r="A108" s="642">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s" s="643">
         <v>228</v>
       </c>
-      <c r="B108" t="s" s="537">
+      <c r="C108" t="s" s="644">
         <v>229</v>
       </c>
-      <c r="C108" t="s" s="538">
+      <c r="D108" t="s" s="645">
         <v>7</v>
       </c>
-      <c r="D108" t="s" s="539">
+      <c r="E108" t="s" s="646">
         <v>102</v>
       </c>
-      <c r="E108" t="s" s="540">
+      <c r="F108" t="s" s="647">
         <v>9</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="541">
+      <c r="A109" s="648">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s" s="649">
         <v>230</v>
       </c>
-      <c r="B109" t="s" s="542">
+      <c r="C109" t="s" s="650">
         <v>231</v>
       </c>
-      <c r="C109" t="s" s="543">
+      <c r="D109" t="s" s="651">
         <v>7</v>
       </c>
-      <c r="D109" t="s" s="544">
+      <c r="E109" t="s" s="652">
         <v>8</v>
       </c>
-      <c r="E109" t="s" s="545">
+      <c r="F109" t="s" s="653">
         <v>9</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="546">
+      <c r="A110" s="654">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s" s="655">
         <v>232</v>
       </c>
-      <c r="B110" t="s" s="547">
+      <c r="C110" t="s" s="656">
         <v>233</v>
       </c>
-      <c r="C110" t="s" s="548">
+      <c r="D110" t="s" s="657">
         <v>7</v>
       </c>
-      <c r="D110" t="s" s="549">
+      <c r="E110" t="s" s="658">
         <v>8</v>
       </c>
-      <c r="E110" t="s" s="550">
+      <c r="F110" t="s" s="659">
         <v>9</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="551">
+      <c r="A111" s="660">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s" s="661">
         <v>234</v>
       </c>
-      <c r="B111" t="s" s="552">
+      <c r="C111" t="s" s="662">
         <v>235</v>
       </c>
-      <c r="C111" t="s" s="553">
+      <c r="D111" t="s" s="663">
         <v>7</v>
       </c>
-      <c r="D111" t="s" s="554">
+      <c r="E111" t="s" s="664">
         <v>8</v>
       </c>
-      <c r="E111" t="s" s="555">
+      <c r="F111" t="s" s="665">
         <v>9</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="556">
+      <c r="A112" s="666">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s" s="667">
         <v>236</v>
       </c>
-      <c r="B112" t="s" s="557">
+      <c r="C112" t="s" s="668">
         <v>237</v>
       </c>
-      <c r="C112" t="s" s="558">
+      <c r="D112" t="s" s="669">
         <v>7</v>
       </c>
-      <c r="D112" t="s" s="559">
+      <c r="E112" t="s" s="670">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="560">
+      <c r="F112" t="s" s="671">
         <v>9</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="561">
+      <c r="A113" s="672">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s" s="673">
         <v>238</v>
       </c>
-      <c r="B113" t="s" s="562">
+      <c r="C113" t="s" s="674">
         <v>239</v>
       </c>
-      <c r="C113" t="s" s="563">
+      <c r="D113" t="s" s="675">
         <v>7</v>
       </c>
-      <c r="D113" t="s" s="564">
+      <c r="E113" t="s" s="676">
         <v>8</v>
       </c>
-      <c r="E113" t="s" s="565">
+      <c r="F113" t="s" s="677">
         <v>9</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="566">
+      <c r="A114" s="678">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s" s="679">
         <v>240</v>
       </c>
-      <c r="B114" t="s" s="567">
+      <c r="C114" t="s" s="680">
         <v>241</v>
       </c>
-      <c r="C114" t="s" s="568">
+      <c r="D114" t="s" s="681">
         <v>7</v>
       </c>
-      <c r="D114" t="s" s="569">
+      <c r="E114" t="s" s="682">
         <v>8</v>
       </c>
-      <c r="E114" t="s" s="570">
+      <c r="F114" t="s" s="683">
         <v>9</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="571">
+      <c r="A115" s="684">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s" s="685">
         <v>242</v>
       </c>
-      <c r="B115" t="s" s="572">
+      <c r="C115" t="s" s="686">
         <v>243</v>
       </c>
-      <c r="C115" t="s" s="573">
+      <c r="D115" t="s" s="687">
         <v>7</v>
       </c>
-      <c r="D115" t="s" s="574">
+      <c r="E115" t="s" s="688">
         <v>8</v>
       </c>
-      <c r="E115" t="s" s="575">
+      <c r="F115" t="s" s="689">
         <v>9</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="576">
+      <c r="A116" s="690">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s" s="691">
         <v>244</v>
       </c>
-      <c r="B116" t="s" s="577">
+      <c r="C116" t="s" s="692">
         <v>245</v>
       </c>
-      <c r="C116" t="s" s="578">
+      <c r="D116" t="s" s="693">
         <v>7</v>
       </c>
-      <c r="D116" t="s" s="579">
+      <c r="E116" t="s" s="694">
         <v>246</v>
       </c>
-      <c r="E116" t="s" s="580">
+      <c r="F116" t="s" s="695">
         <v>9</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="581">
+      <c r="A117" s="696">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s" s="697">
         <v>247</v>
       </c>
-      <c r="B117" t="s" s="582">
+      <c r="C117" t="s" s="698">
         <v>248</v>
       </c>
-      <c r="C117" t="s" s="583">
+      <c r="D117" t="s" s="699">
         <v>7</v>
       </c>
-      <c r="D117" t="s" s="584">
+      <c r="E117" t="s" s="700">
         <v>8</v>
       </c>
-      <c r="E117" t="s" s="585">
+      <c r="F117" t="s" s="701">
         <v>9</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="586">
+      <c r="B118" t="s" s="702">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s" s="703">
         <v>249</v>
       </c>
-      <c r="B118" t="s" s="587">
+      <c r="D118" t="s" s="704">
         <v>9</v>
       </c>
-      <c r="C118" t="s" s="588">
+      <c r="E118" t="s" s="705">
         <v>9</v>
       </c>
-      <c r="D118" t="s" s="589">
+      <c r="F118" t="s" s="706">
         <v>250</v>
-      </c>
-      <c r="E118" t="s" s="590">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
